--- a/biology/Botanique/Sarment/Sarment.xlsx
+++ b/biology/Botanique/Sarment/Sarment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sarment est le rameau vert que la vigne pousse chaque année[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sarment est le rameau vert que la vigne pousse chaque année.
 Le Lexique de la vigne et du vin, édité par l'organisation internationale de la vigne et du vin, donne comme définition « rameau d'un an bien développé ». 
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les sarments sont les vecteurs de la sève destinés aux organes de la vigne. On y retrouve le xylème et le phloème, la moelle et l'écorce.
@@ -546,15 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Printemps
-Les jeunes pousses sont appelées rameaux, avant leur aoûtement en été.
-Été
-L'aoûtement des rameaux de l'année donne les sarments. La taille en vert est réalisée durant l'été pour favoriser la maturation des baies ou d'améliorer les conditions sanitaires.
-Automne
-A l'automne, les sarments sont lignifiés et perdent leurs feuilles.
-Hiver
-Lors de la taille sèche - faite entre novembre et mars - le viticulteur détermine la formation des sarments de l'année précédente sur le cep et sa productivité. Une taille longue, quatre à dix yeux par sarment, donnera un rendement quantitatif, une taille courte, deux à trois yeux par sarment, un rendement qualitatif. 
-Les sarments taillés sont tirés du palissage ou dépouillés des échalas, et rassemblés, soit pour être broyés au sol, soit pour être brûlés au fur et à mesure, soit sortis de la parcelle pour être broyés ou brûlés. 
+          <t>Printemps</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes pousses sont appelées rameaux, avant leur aoûtement en été.
 </t>
         </is>
       </c>
@@ -580,10 +592,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Stades phénologiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Été</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aoûtement des rameaux de l'année donne les sarments. La taille en vert est réalisée durant l'été pour favoriser la maturation des baies ou d'améliorer les conditions sanitaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarment</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarment</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Stades phénologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Automne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A l'automne, les sarments sont lignifiés et perdent leurs feuilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarment</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarment</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Stades phénologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hiver</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la taille sèche - faite entre novembre et mars - le viticulteur détermine la formation des sarments de l'année précédente sur le cep et sa productivité. Une taille longue, quatre à dix yeux par sarment, donnera un rendement quantitatif, une taille courte, deux à trois yeux par sarment, un rendement qualitatif. 
+Les sarments taillés sont tirés du palissage ou dépouillés des échalas, et rassemblés, soit pour être broyés au sol, soit pour être brûlés au fur et à mesure, soit sortis de la parcelle pour être broyés ou brûlés. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarment</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarment</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Athéna avait le sarment comme symbole.
 Dans le Nouveau Testament (Évangile de Jean chapitre 15), le sarment représente celui qui croit et demeure attaché à Jésus-Christ, celui-ci étant le cep et les sarments sont les branches qui poussent après le cep. (Vigne, arbre à raisin)
